--- a/net_8_ssh/practice_homework/practice_1_ssh_username_from_excel/excel_file/write_iosuser_new.xlsx
+++ b/net_8_ssh/practice_homework/practice_1_ssh_username_from_excel/excel_file/write_iosuser_new.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="10.1.1.253" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="10.10.1.1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,16 +456,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>qytanguser1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cisc0123</t>
+          <t>cisco123</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -474,16 +474,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>qytanguser1</t>
+          <t>ccieuser</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>cisco123</t>
+          <t>Cisc0123</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -492,33 +492,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ccieuser</t>
+          <t>passuser</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Cisc0123</t>
+          <t>12345</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>passuser</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>12345</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
         <v>1</v>
       </c>
     </row>
